--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -1,5 +1,704 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/books/Desktop/auto_timesheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FE37F-D004-0A4B-BCB6-C9ACFFEC5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Public Holidays" sheetId="2" r:id="rId2"/>
+    <sheet name="Result" sheetId="4" r:id="rId3"/>
+    <sheet name="Time Sheet" sheetId="3" r:id="rId4"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Time Sheet'!$B$1:$I$35</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+  <si>
+    <t>4. Day of the week</t>
+  </si>
+  <si>
+    <t>1. Start date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>2. End date</t>
+  </si>
+  <si>
+    <t>3. Restrictions</t>
+  </si>
+  <si>
+    <t>Date Range Limit (days)</t>
+  </si>
+  <si>
+    <t>Weekly limit (hours)</t>
+  </si>
+  <si>
+    <t>Office hours (start) (24hour format)</t>
+  </si>
+  <si>
+    <t>Lunch hour (start) (24hour format)</t>
+  </si>
+  <si>
+    <t>Lunch hour (end) (24hour format)</t>
+  </si>
+  <si>
+    <t>Office hours (end) (24hour format)</t>
+  </si>
+  <si>
+    <t>Day of week 1</t>
+  </si>
+  <si>
+    <t>Day of week 2</t>
+  </si>
+  <si>
+    <t>Total working hours limit</t>
+  </si>
+  <si>
+    <t>Desired working hours</t>
+  </si>
+  <si>
+    <t>The first day of January</t>
+  </si>
+  <si>
+    <t>Lunar New Year’s Day</t>
+  </si>
+  <si>
+    <t>The second day of Lunar New Year</t>
+  </si>
+  <si>
+    <t>The third day of Lunar New Year</t>
+  </si>
+  <si>
+    <t>Ching Ming Festival</t>
+  </si>
+  <si>
+    <t>Labour Day</t>
+  </si>
+  <si>
+    <t>The Birthday of the Buddha*</t>
+  </si>
+  <si>
+    <t>Tuen Ng Festival</t>
+  </si>
+  <si>
+    <t>Hong Kong Special Administrative Region Establishment Day</t>
+  </si>
+  <si>
+    <t>The second day following the Chinese Mid-Autumn Festival</t>
+  </si>
+  <si>
+    <t>National Day</t>
+  </si>
+  <si>
+    <t>Chung Yeung Festival</t>
+  </si>
+  <si>
+    <t>Chinese Winter Solstice Festival</t>
+  </si>
+  <si>
+    <t>Christmas Day</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>5.Duty</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>The HKJC Centre for Suicide Research and Prevention</t>
+  </si>
+  <si>
+    <t>The University of Hong Kong</t>
+  </si>
+  <si>
+    <t>Signature of intern:  ____________________</t>
+  </si>
+  <si>
+    <t>Declaration:</t>
+  </si>
+  <si>
+    <t>I, the abovenamed person, hereby declare that:</t>
+  </si>
+  <si>
+    <t>(a) for the above-mentioned period of work, I am entitled to work and provide services in Hong Kong. My undertaking of the above work/provision of the above services has not breached and will not breach any applicable laws or conditions of stay, in particular the limit of working hours permitted by the Director of Immigration;</t>
+  </si>
+  <si>
+    <t>(b) for the above-mentioned period of work, I have not received and will not receive any postgraduate studentship from The University of Hong Kong (“University”);</t>
+  </si>
+  <si>
+    <t>(c) I have not entered or will not enter into any other employment with the University, resulting in my having worked for the University for a continuous period of more than 59 days inclusive of or covering the above-mentioned period of work.</t>
+  </si>
+  <si>
+    <t>Name:___________________________</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Office Start</t>
+  </si>
+  <si>
+    <t>Lunch Start</t>
+  </si>
+  <si>
+    <t>Lunch End</t>
+  </si>
+  <si>
+    <t>Office End</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>Sum of total hours</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time Sheet for period of  __  / __  /  2022 – __  / __  /  2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved by : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">____________________________ </t>
+  </si>
+  <si>
+    <t>(                                                                                       )</t>
+  </si>
+  <si>
+    <t>Date:______________________________</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>Paste in cell A1</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="15">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -286,9 +985,1287 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Monday, Tuesday, Wednesday, Thursday, Friday, Saturday"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="17">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="17">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="17">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="20">
+        <v>12</v>
+      </c>
+      <c r="D15" s="24">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K36"/>
+  <sheetViews>
+    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="27">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="G6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="40" t="str">
+        <f>IF(Result!A12="","",Result!A12)</f>
+        <v/>
+      </c>
+      <c r="C27" s="40" t="str">
+        <f>IF(Result!B12="","",Result!B12)</f>
+        <v/>
+      </c>
+      <c r="D27" s="40" t="str">
+        <f>IF(Result!C12="","",Result!C12)</f>
+        <v/>
+      </c>
+      <c r="E27" s="40" t="str">
+        <f>IF(Result!D12="","",Result!D12)</f>
+        <v/>
+      </c>
+      <c r="F27" s="40" t="str">
+        <f>IF(Result!E12="","",Result!E12)</f>
+        <v/>
+      </c>
+      <c r="G27" s="40" t="str">
+        <f>IF(Result!F12="","",Result!F12)</f>
+        <v/>
+      </c>
+      <c r="H27" s="40" t="str">
+        <f>IF(Result!G12="","",Result!G12)</f>
+        <v/>
+      </c>
+      <c r="I27" s="40" t="str">
+        <f>IF(Result!H12="","",Result!H12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="40" t="str">
+        <f>IF(Result!A13="","",Result!A13)</f>
+        <v/>
+      </c>
+      <c r="C28" s="40" t="str">
+        <f>IF(Result!B13="","",Result!B13)</f>
+        <v/>
+      </c>
+      <c r="D28" s="40" t="str">
+        <f>IF(Result!C13="","",Result!C13)</f>
+        <v/>
+      </c>
+      <c r="E28" s="40" t="str">
+        <f>IF(Result!D13="","",Result!D13)</f>
+        <v/>
+      </c>
+      <c r="F28" s="40" t="str">
+        <f>IF(Result!E13="","",Result!E13)</f>
+        <v/>
+      </c>
+      <c r="G28" s="40" t="str">
+        <f>IF(Result!F13="","",Result!F13)</f>
+        <v/>
+      </c>
+      <c r="H28" s="40" t="str">
+        <f>IF(Result!G13="","",Result!G13)</f>
+        <v/>
+      </c>
+      <c r="I28" s="40" t="str">
+        <f>IF(Result!H13="","",Result!H13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="40" t="str">
+        <f>IF(Result!A14="","",Result!A14)</f>
+        <v/>
+      </c>
+      <c r="C29" s="40" t="str">
+        <f>IF(Result!B14="","",Result!B14)</f>
+        <v/>
+      </c>
+      <c r="D29" s="40" t="str">
+        <f>IF(Result!C14="","",Result!C14)</f>
+        <v/>
+      </c>
+      <c r="E29" s="40" t="str">
+        <f>IF(Result!D14="","",Result!D14)</f>
+        <v/>
+      </c>
+      <c r="F29" s="40" t="str">
+        <f>IF(Result!E14="","",Result!E14)</f>
+        <v/>
+      </c>
+      <c r="G29" s="40" t="str">
+        <f>IF(Result!F14="","",Result!F14)</f>
+        <v/>
+      </c>
+      <c r="H29" s="40" t="str">
+        <f>IF(Result!G14="","",Result!G14)</f>
+        <v/>
+      </c>
+      <c r="I29" s="40" t="str">
+        <f>IF(Result!H14="","",Result!H14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="40" t="str">
+        <f>IF(Result!A15="","",Result!A15)</f>
+        <v/>
+      </c>
+      <c r="C30" s="40" t="str">
+        <f>IF(Result!B15="","",Result!B15)</f>
+        <v/>
+      </c>
+      <c r="D30" s="40" t="str">
+        <f>IF(Result!C15="","",Result!C15)</f>
+        <v/>
+      </c>
+      <c r="E30" s="40" t="str">
+        <f>IF(Result!D15="","",Result!D15)</f>
+        <v/>
+      </c>
+      <c r="F30" s="40" t="str">
+        <f>IF(Result!E15="","",Result!E15)</f>
+        <v/>
+      </c>
+      <c r="G30" s="40" t="str">
+        <f>IF(Result!F15="","",Result!F15)</f>
+        <v/>
+      </c>
+      <c r="H30" s="40" t="str">
+        <f>IF(Result!G15="","",Result!G15)</f>
+        <v/>
+      </c>
+      <c r="I30" s="40" t="str">
+        <f>IF(Result!H15="","",Result!H15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="40" t="str">
+        <f>IF(Result!A16="","",Result!A16)</f>
+        <v/>
+      </c>
+      <c r="C31" s="40" t="str">
+        <f>IF(Result!B16="","",Result!B16)</f>
+        <v/>
+      </c>
+      <c r="D31" s="40" t="str">
+        <f>IF(Result!C16="","",Result!C16)</f>
+        <v/>
+      </c>
+      <c r="E31" s="40" t="str">
+        <f>IF(Result!D16="","",Result!D16)</f>
+        <v/>
+      </c>
+      <c r="F31" s="40" t="str">
+        <f>IF(Result!E16="","",Result!E16)</f>
+        <v/>
+      </c>
+      <c r="G31" s="40" t="str">
+        <f>IF(Result!F16="","",Result!F16)</f>
+        <v/>
+      </c>
+      <c r="H31" s="40" t="str">
+        <f>IF(Result!G16="","",Result!G16)</f>
+        <v/>
+      </c>
+      <c r="I31" s="40" t="str">
+        <f>IF(Result!H16="","",Result!H16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="40" t="str">
+        <f>IF(Result!A17="","",Result!A17)</f>
+        <v/>
+      </c>
+      <c r="C32" s="40" t="str">
+        <f>IF(Result!B17="","",Result!B17)</f>
+        <v/>
+      </c>
+      <c r="D32" s="40" t="str">
+        <f>IF(Result!C17="","",Result!C17)</f>
+        <v/>
+      </c>
+      <c r="E32" s="40" t="str">
+        <f>IF(Result!D17="","",Result!D17)</f>
+        <v/>
+      </c>
+      <c r="F32" s="40" t="str">
+        <f>IF(Result!E17="","",Result!E17)</f>
+        <v/>
+      </c>
+      <c r="G32" s="40" t="str">
+        <f>IF(Result!F17="","",Result!F17)</f>
+        <v/>
+      </c>
+      <c r="H32" s="40" t="str">
+        <f>IF(Result!G17="","",Result!G17)</f>
+        <v/>
+      </c>
+      <c r="I32" s="40" t="str">
+        <f>IF(Result!H17="","",Result!H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="31">
+        <f>IF(Result!G18="","",Result!G18)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+    </row>
+    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="33"/>
+      <c r="C36" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="I36" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="B13:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/books/Desktop/auto_timesheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrpuser\Desktop\auto-timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FE37F-D004-0A4B-BCB6-C9ACFFEC5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B00AF-552E-4FEA-8C17-97D83B3449F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Time Sheet'!$B$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -998,22 +986,22 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1009,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1037,17 +1025,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,25 +1051,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1089,15 +1077,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -1145,17 +1133,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1171,11 +1159,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>32</v>
       </c>
@@ -1183,15 +1171,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
     </row>
@@ -1215,14 +1203,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="18" t="s">
         <v>2</v>
@@ -1234,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -1248,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -1346,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
@@ -1444,9 +1432,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1501,7 +1489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1527,7 +1515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1553,7 +1541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1579,7 +1567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1605,7 +1593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1631,7 +1619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1709,7 +1697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1735,7 +1723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="39" t="s">
         <v>50</v>
       </c>
@@ -1759,13 +1747,13 @@
       <selection activeCell="B17" sqref="B17:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>34</v>
       </c>
@@ -1774,15 +1762,15 @@
       </c>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>51</v>
       </c>
@@ -1794,10 +1782,10 @@
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>42</v>
       </c>
@@ -1808,24 +1796,24 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
         <v>39</v>
       </c>
@@ -1837,7 +1825,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -1847,7 +1835,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>40</v>
       </c>
@@ -1859,7 +1847,7 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1859,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -1881,7 +1869,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -1891,7 +1879,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>43</v>
       </c>
@@ -1917,7 +1905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -1927,7 +1915,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -1937,7 +1925,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1947,7 +1935,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -1957,7 +1945,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -1967,7 +1955,7 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -1977,7 +1965,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -1987,7 +1975,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -1997,7 +1985,7 @@
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -2007,7 +1995,7 @@
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -2017,7 +2005,7 @@
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="str">
         <f>IF(Result!A12="","",Result!A12)</f>
         <v/>
@@ -2051,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="str">
         <f>IF(Result!A13="","",Result!A13)</f>
         <v/>
@@ -2085,7 +2073,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="str">
         <f>IF(Result!A14="","",Result!A14)</f>
         <v/>
@@ -2119,7 +2107,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="str">
         <f>IF(Result!A15="","",Result!A15)</f>
         <v/>
@@ -2153,7 +2141,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="str">
         <f>IF(Result!A16="","",Result!A16)</f>
         <v/>
@@ -2187,7 +2175,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="str">
         <f>IF(Result!A17="","",Result!A17)</f>
         <v/>
@@ -2221,7 +2209,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G33" s="32" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>52</v>
       </c>
@@ -2246,7 +2234,7 @@
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
     </row>
-    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="42" t="s">
         <v>54</v>

--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/books/Desktop/auto_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FE37F-D004-0A4B-BCB6-C9ACFFEC5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B99C1-3B1D-9D4C-85B6-D21B0FA24473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,6 +681,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1060,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1209,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1429,6 +1431,11 @@
       <c r="D15" s="24">
         <v>25</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/books/Desktop/auto_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B99C1-3B1D-9D4C-85B6-D21B0FA24473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07D067-C72E-8047-8E9D-5C052F106A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>4. Day of the week</t>
   </si>
@@ -226,64 +226,10 @@
     <t>Date:______________________________</t>
   </si>
   <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>Paste in cell A1</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -403,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -477,58 +423,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -579,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,24 +505,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,8 +523,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="12"/>
     </xf>
@@ -660,16 +540,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,8 +561,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +887,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1036,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1062,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1070,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1162,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1178,10 +1065,10 @@
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1214,7 +1101,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A16:D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1224,218 +1111,219 @@
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="34">
         <v>2022</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="32">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="32">
         <v>2022</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="32">
         <v>2022</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="32">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="32">
         <v>2022</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="32">
         <v>2022</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="32">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="32">
         <v>2022</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="32">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="32">
         <v>2022</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="32">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="32">
         <v>2022</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="32">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="32">
         <v>2022</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="32">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="32">
         <v>2022</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="32">
         <v>9</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="31">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="32">
         <v>2022</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="32">
         <v>10</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="32">
         <v>2022</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="32">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="32">
         <v>2022</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="32">
         <v>12</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="36">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="32">
         <v>2022</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="32">
         <v>12</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="36">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,307 +1336,26 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H18" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="J1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,8 +1369,8 @@
   </sheetPr>
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I26"/>
+    <sheetView topLeftCell="A9" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1773,494 +1380,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="13">
         <v>2022</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="G6" s="43" t="s">
+      <c r="C6" s="15"/>
+      <c r="G6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="B17" s="26" t="str">
+        <f>IF(Result!A2="","",Result!A2)</f>
+        <v/>
+      </c>
+      <c r="C17" s="26" t="str">
+        <f>IF(Result!B2="","",Result!B2)</f>
+        <v/>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>IF(Result!C2="","",Result!C2)</f>
+        <v/>
+      </c>
+      <c r="E17" s="26" t="str">
+        <f>IF(Result!D2="","",Result!D2)</f>
+        <v/>
+      </c>
+      <c r="F17" s="26" t="str">
+        <f>IF(Result!E2="","",Result!E2)</f>
+        <v/>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f>IF(Result!F2="","",Result!F2)</f>
+        <v/>
+      </c>
+      <c r="H17" s="26" t="str">
+        <f>IF(Result!G2="","",Result!G2)</f>
+        <v/>
+      </c>
+      <c r="I17" s="26" t="str">
+        <f>IF(Result!H2="","",Result!H2)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="B18" s="26" t="str">
+        <f>IF(Result!A3="","",Result!A3)</f>
+        <v/>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f>IF(Result!B3="","",Result!B3)</f>
+        <v/>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f>IF(Result!C3="","",Result!C3)</f>
+        <v/>
+      </c>
+      <c r="E18" s="26" t="str">
+        <f>IF(Result!D3="","",Result!D3)</f>
+        <v/>
+      </c>
+      <c r="F18" s="26" t="str">
+        <f>IF(Result!E3="","",Result!E3)</f>
+        <v/>
+      </c>
+      <c r="G18" s="26" t="str">
+        <f>IF(Result!F3="","",Result!F3)</f>
+        <v/>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f>IF(Result!G3="","",Result!G3)</f>
+        <v/>
+      </c>
+      <c r="I18" s="26" t="str">
+        <f>IF(Result!H3="","",Result!H3)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="B19" s="26" t="str">
+        <f>IF(Result!A4="","",Result!A4)</f>
+        <v/>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f>IF(Result!B4="","",Result!B4)</f>
+        <v/>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>IF(Result!C4="","",Result!C4)</f>
+        <v/>
+      </c>
+      <c r="E19" s="26" t="str">
+        <f>IF(Result!D4="","",Result!D4)</f>
+        <v/>
+      </c>
+      <c r="F19" s="26" t="str">
+        <f>IF(Result!E4="","",Result!E4)</f>
+        <v/>
+      </c>
+      <c r="G19" s="26" t="str">
+        <f>IF(Result!F4="","",Result!F4)</f>
+        <v/>
+      </c>
+      <c r="H19" s="26" t="str">
+        <f>IF(Result!G4="","",Result!G4)</f>
+        <v/>
+      </c>
+      <c r="I19" s="26" t="str">
+        <f>IF(Result!H4="","",Result!H4)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="B20" s="26" t="str">
+        <f>IF(Result!A5="","",Result!A5)</f>
+        <v/>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f>IF(Result!B5="","",Result!B5)</f>
+        <v/>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>IF(Result!C5="","",Result!C5)</f>
+        <v/>
+      </c>
+      <c r="E20" s="26" t="str">
+        <f>IF(Result!D5="","",Result!D5)</f>
+        <v/>
+      </c>
+      <c r="F20" s="26" t="str">
+        <f>IF(Result!E5="","",Result!E5)</f>
+        <v/>
+      </c>
+      <c r="G20" s="26" t="str">
+        <f>IF(Result!F5="","",Result!F5)</f>
+        <v/>
+      </c>
+      <c r="H20" s="26" t="str">
+        <f>IF(Result!G5="","",Result!G5)</f>
+        <v/>
+      </c>
+      <c r="I20" s="26" t="str">
+        <f>IF(Result!H5="","",Result!H5)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="B21" s="26" t="str">
+        <f>IF(Result!A6="","",Result!A6)</f>
+        <v/>
+      </c>
+      <c r="C21" s="26" t="str">
+        <f>IF(Result!B6="","",Result!B6)</f>
+        <v/>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>IF(Result!C6="","",Result!C6)</f>
+        <v/>
+      </c>
+      <c r="E21" s="26" t="str">
+        <f>IF(Result!D6="","",Result!D6)</f>
+        <v/>
+      </c>
+      <c r="F21" s="26" t="str">
+        <f>IF(Result!E6="","",Result!E6)</f>
+        <v/>
+      </c>
+      <c r="G21" s="26" t="str">
+        <f>IF(Result!F6="","",Result!F6)</f>
+        <v/>
+      </c>
+      <c r="H21" s="26" t="str">
+        <f>IF(Result!G6="","",Result!G6)</f>
+        <v/>
+      </c>
+      <c r="I21" s="26" t="str">
+        <f>IF(Result!H6="","",Result!H6)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="B22" s="26" t="str">
+        <f>IF(Result!A7="","",Result!A7)</f>
+        <v/>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f>IF(Result!B7="","",Result!B7)</f>
+        <v/>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f>IF(Result!C7="","",Result!C7)</f>
+        <v/>
+      </c>
+      <c r="E22" s="26" t="str">
+        <f>IF(Result!D7="","",Result!D7)</f>
+        <v/>
+      </c>
+      <c r="F22" s="26" t="str">
+        <f>IF(Result!E7="","",Result!E7)</f>
+        <v/>
+      </c>
+      <c r="G22" s="26" t="str">
+        <f>IF(Result!F7="","",Result!F7)</f>
+        <v/>
+      </c>
+      <c r="H22" s="26" t="str">
+        <f>IF(Result!G7="","",Result!G7)</f>
+        <v/>
+      </c>
+      <c r="I22" s="26" t="str">
+        <f>IF(Result!H7="","",Result!H7)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="B23" s="26" t="str">
+        <f>IF(Result!A8="","",Result!A8)</f>
+        <v/>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f>IF(Result!B8="","",Result!B8)</f>
+        <v/>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>IF(Result!C8="","",Result!C8)</f>
+        <v/>
+      </c>
+      <c r="E23" s="26" t="str">
+        <f>IF(Result!D8="","",Result!D8)</f>
+        <v/>
+      </c>
+      <c r="F23" s="26" t="str">
+        <f>IF(Result!E8="","",Result!E8)</f>
+        <v/>
+      </c>
+      <c r="G23" s="26" t="str">
+        <f>IF(Result!F8="","",Result!F8)</f>
+        <v/>
+      </c>
+      <c r="H23" s="26" t="str">
+        <f>IF(Result!G8="","",Result!G8)</f>
+        <v/>
+      </c>
+      <c r="I23" s="26" t="str">
+        <f>IF(Result!H8="","",Result!H8)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="B24" s="26" t="str">
+        <f>IF(Result!A9="","",Result!A9)</f>
+        <v/>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f>IF(Result!B9="","",Result!B9)</f>
+        <v/>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>IF(Result!C9="","",Result!C9)</f>
+        <v/>
+      </c>
+      <c r="E24" s="26" t="str">
+        <f>IF(Result!D9="","",Result!D9)</f>
+        <v/>
+      </c>
+      <c r="F24" s="26" t="str">
+        <f>IF(Result!E9="","",Result!E9)</f>
+        <v/>
+      </c>
+      <c r="G24" s="26" t="str">
+        <f>IF(Result!F9="","",Result!F9)</f>
+        <v/>
+      </c>
+      <c r="H24" s="26" t="str">
+        <f>IF(Result!G9="","",Result!G9)</f>
+        <v/>
+      </c>
+      <c r="I24" s="26" t="str">
+        <f>IF(Result!H9="","",Result!H9)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="B25" s="26" t="str">
+        <f>IF(Result!A10="","",Result!A10)</f>
+        <v/>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f>IF(Result!B10="","",Result!B10)</f>
+        <v/>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>IF(Result!C10="","",Result!C10)</f>
+        <v/>
+      </c>
+      <c r="E25" s="26" t="str">
+        <f>IF(Result!D10="","",Result!D10)</f>
+        <v/>
+      </c>
+      <c r="F25" s="26" t="str">
+        <f>IF(Result!E10="","",Result!E10)</f>
+        <v/>
+      </c>
+      <c r="G25" s="26" t="str">
+        <f>IF(Result!F10="","",Result!F10)</f>
+        <v/>
+      </c>
+      <c r="H25" s="26" t="str">
+        <f>IF(Result!G10="","",Result!G10)</f>
+        <v/>
+      </c>
+      <c r="I25" s="26" t="str">
+        <f>IF(Result!H10="","",Result!H10)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="B26" s="26" t="str">
+        <f>IF(Result!A11="","",Result!A11)</f>
+        <v/>
+      </c>
+      <c r="C26" s="26" t="str">
+        <f>IF(Result!B11="","",Result!B11)</f>
+        <v/>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f>IF(Result!C11="","",Result!C11)</f>
+        <v/>
+      </c>
+      <c r="E26" s="26" t="str">
+        <f>IF(Result!D11="","",Result!D11)</f>
+        <v/>
+      </c>
+      <c r="F26" s="26" t="str">
+        <f>IF(Result!E11="","",Result!E11)</f>
+        <v/>
+      </c>
+      <c r="G26" s="26" t="str">
+        <f>IF(Result!F11="","",Result!F11)</f>
+        <v/>
+      </c>
+      <c r="H26" s="26" t="str">
+        <f>IF(Result!G11="","",Result!G11)</f>
+        <v/>
+      </c>
+      <c r="I26" s="26" t="str">
+        <f>IF(Result!H11="","",Result!H11)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="40" t="str">
+      <c r="B27" s="26" t="str">
         <f>IF(Result!A12="","",Result!A12)</f>
         <v/>
       </c>
-      <c r="C27" s="40" t="str">
+      <c r="C27" s="26" t="str">
         <f>IF(Result!B12="","",Result!B12)</f>
         <v/>
       </c>
-      <c r="D27" s="40" t="str">
+      <c r="D27" s="26" t="str">
         <f>IF(Result!C12="","",Result!C12)</f>
         <v/>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="26" t="str">
         <f>IF(Result!D12="","",Result!D12)</f>
         <v/>
       </c>
-      <c r="F27" s="40" t="str">
+      <c r="F27" s="26" t="str">
         <f>IF(Result!E12="","",Result!E12)</f>
         <v/>
       </c>
-      <c r="G27" s="40" t="str">
+      <c r="G27" s="26" t="str">
         <f>IF(Result!F12="","",Result!F12)</f>
         <v/>
       </c>
-      <c r="H27" s="40" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(Result!G12="","",Result!G12)</f>
         <v/>
       </c>
-      <c r="I27" s="40" t="str">
+      <c r="I27" s="26" t="str">
         <f>IF(Result!H12="","",Result!H12)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="40" t="str">
+      <c r="B28" s="26" t="str">
         <f>IF(Result!A13="","",Result!A13)</f>
         <v/>
       </c>
-      <c r="C28" s="40" t="str">
+      <c r="C28" s="26" t="str">
         <f>IF(Result!B13="","",Result!B13)</f>
         <v/>
       </c>
-      <c r="D28" s="40" t="str">
+      <c r="D28" s="26" t="str">
         <f>IF(Result!C13="","",Result!C13)</f>
         <v/>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="26" t="str">
         <f>IF(Result!D13="","",Result!D13)</f>
         <v/>
       </c>
-      <c r="F28" s="40" t="str">
+      <c r="F28" s="26" t="str">
         <f>IF(Result!E13="","",Result!E13)</f>
         <v/>
       </c>
-      <c r="G28" s="40" t="str">
+      <c r="G28" s="26" t="str">
         <f>IF(Result!F13="","",Result!F13)</f>
         <v/>
       </c>
-      <c r="H28" s="40" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(Result!G13="","",Result!G13)</f>
         <v/>
       </c>
-      <c r="I28" s="40" t="str">
+      <c r="I28" s="26" t="str">
         <f>IF(Result!H13="","",Result!H13)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="40" t="str">
+      <c r="B29" s="26" t="str">
         <f>IF(Result!A14="","",Result!A14)</f>
         <v/>
       </c>
-      <c r="C29" s="40" t="str">
+      <c r="C29" s="26" t="str">
         <f>IF(Result!B14="","",Result!B14)</f>
         <v/>
       </c>
-      <c r="D29" s="40" t="str">
+      <c r="D29" s="26" t="str">
         <f>IF(Result!C14="","",Result!C14)</f>
         <v/>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="26" t="str">
         <f>IF(Result!D14="","",Result!D14)</f>
         <v/>
       </c>
-      <c r="F29" s="40" t="str">
+      <c r="F29" s="26" t="str">
         <f>IF(Result!E14="","",Result!E14)</f>
         <v/>
       </c>
-      <c r="G29" s="40" t="str">
+      <c r="G29" s="26" t="str">
         <f>IF(Result!F14="","",Result!F14)</f>
         <v/>
       </c>
-      <c r="H29" s="40" t="str">
+      <c r="H29" s="26" t="str">
         <f>IF(Result!G14="","",Result!G14)</f>
         <v/>
       </c>
-      <c r="I29" s="40" t="str">
+      <c r="I29" s="26" t="str">
         <f>IF(Result!H14="","",Result!H14)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="26" t="str">
         <f>IF(Result!A15="","",Result!A15)</f>
         <v/>
       </c>
-      <c r="C30" s="40" t="str">
+      <c r="C30" s="26" t="str">
         <f>IF(Result!B15="","",Result!B15)</f>
         <v/>
       </c>
-      <c r="D30" s="40" t="str">
+      <c r="D30" s="26" t="str">
         <f>IF(Result!C15="","",Result!C15)</f>
         <v/>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="26" t="str">
         <f>IF(Result!D15="","",Result!D15)</f>
         <v/>
       </c>
-      <c r="F30" s="40" t="str">
+      <c r="F30" s="26" t="str">
         <f>IF(Result!E15="","",Result!E15)</f>
         <v/>
       </c>
-      <c r="G30" s="40" t="str">
+      <c r="G30" s="26" t="str">
         <f>IF(Result!F15="","",Result!F15)</f>
         <v/>
       </c>
-      <c r="H30" s="40" t="str">
+      <c r="H30" s="26" t="str">
         <f>IF(Result!G15="","",Result!G15)</f>
         <v/>
       </c>
-      <c r="I30" s="40" t="str">
+      <c r="I30" s="26" t="str">
         <f>IF(Result!H15="","",Result!H15)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="40" t="str">
+      <c r="B31" s="26" t="str">
         <f>IF(Result!A16="","",Result!A16)</f>
         <v/>
       </c>
-      <c r="C31" s="40" t="str">
+      <c r="C31" s="26" t="str">
         <f>IF(Result!B16="","",Result!B16)</f>
         <v/>
       </c>
-      <c r="D31" s="40" t="str">
+      <c r="D31" s="26" t="str">
         <f>IF(Result!C16="","",Result!C16)</f>
         <v/>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="26" t="str">
         <f>IF(Result!D16="","",Result!D16)</f>
         <v/>
       </c>
-      <c r="F31" s="40" t="str">
+      <c r="F31" s="26" t="str">
         <f>IF(Result!E16="","",Result!E16)</f>
         <v/>
       </c>
-      <c r="G31" s="40" t="str">
+      <c r="G31" s="26" t="str">
         <f>IF(Result!F16="","",Result!F16)</f>
         <v/>
       </c>
-      <c r="H31" s="40" t="str">
+      <c r="H31" s="26" t="str">
         <f>IF(Result!G16="","",Result!G16)</f>
         <v/>
       </c>
-      <c r="I31" s="40" t="str">
+      <c r="I31" s="26" t="str">
         <f>IF(Result!H16="","",Result!H16)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="str">
+      <c r="B32" s="26" t="str">
         <f>IF(Result!A17="","",Result!A17)</f>
         <v/>
       </c>
-      <c r="C32" s="40" t="str">
+      <c r="C32" s="26" t="str">
         <f>IF(Result!B17="","",Result!B17)</f>
         <v/>
       </c>
-      <c r="D32" s="40" t="str">
+      <c r="D32" s="26" t="str">
         <f>IF(Result!C17="","",Result!C17)</f>
         <v/>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="26" t="str">
         <f>IF(Result!D17="","",Result!D17)</f>
         <v/>
       </c>
-      <c r="F32" s="40" t="str">
+      <c r="F32" s="26" t="str">
         <f>IF(Result!E17="","",Result!E17)</f>
         <v/>
       </c>
-      <c r="G32" s="40" t="str">
+      <c r="G32" s="26" t="str">
         <f>IF(Result!F17="","",Result!F17)</f>
         <v/>
       </c>
-      <c r="H32" s="40" t="str">
+      <c r="H32" s="26" t="str">
         <f>IF(Result!G17="","",Result!G17)</f>
         <v/>
       </c>
-      <c r="I32" s="40" t="str">
+      <c r="I32" s="26" t="str">
         <f>IF(Result!H17="","",Result!H17)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="17" t="str">
         <f>IF(Result!G18="","",Result!G18)</f>
-        <v>70</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="43" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="33"/>
-      <c r="C36" s="42" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="I36" s="33"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="I36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/books/Desktop/auto_timesheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrpuser\Desktop\auto-timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07D067-C72E-8047-8E9D-5C052F106A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04804000-9739-4039-806A-47B011DD45F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1980" windowWidth="28020" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Time Sheet'!$B$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -229,7 +217,7 @@
     <t>Paste in cell A1</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -552,15 +540,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -570,6 +549,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,23 +874,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -910,15 +898,15 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -926,17 +914,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -944,15 +932,15 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -960,17 +948,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -978,15 +966,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -994,7 +982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -1034,17 +1022,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1060,11 +1048,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1072,15 +1060,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
     </row>
@@ -1100,230 +1088,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>2022</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>2022</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>2022</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>2</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <v>2022</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>2022</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>4</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <v>2022</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>5</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <v>2022</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>2022</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <v>2022</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>7</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <v>2022</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>9</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <v>2022</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>10</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>2022</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>10</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <v>2022</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>12</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="33">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <v>2022</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>12</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+    <row r="16" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,9 +1327,9 @@
       <selection activeCell="H18" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1354,7 +1342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="25"/>
     </row>
   </sheetData>
@@ -1373,13 +1361,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
@@ -1388,80 +1376,80 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
@@ -1473,29 +1461,29 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1505,7 +1493,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="str">
         <f>IF(Result!A2="","",Result!A2)</f>
         <v/>
@@ -1565,7 +1553,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="str">
         <f>IF(Result!A3="","",Result!A3)</f>
         <v/>
@@ -1599,7 +1587,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="str">
         <f>IF(Result!A4="","",Result!A4)</f>
         <v/>
@@ -1633,7 +1621,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="str">
         <f>IF(Result!A5="","",Result!A5)</f>
         <v/>
@@ -1667,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="str">
         <f>IF(Result!A6="","",Result!A6)</f>
         <v/>
@@ -1701,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="str">
         <f>IF(Result!A7="","",Result!A7)</f>
         <v/>
@@ -1735,7 +1723,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="str">
         <f>IF(Result!A8="","",Result!A8)</f>
         <v/>
@@ -1769,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="str">
         <f>IF(Result!A9="","",Result!A9)</f>
         <v/>
@@ -1803,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="str">
         <f>IF(Result!A10="","",Result!A10)</f>
         <v/>
@@ -1837,7 +1825,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="str">
         <f>IF(Result!A11="","",Result!A11)</f>
         <v/>
@@ -1871,7 +1859,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="str">
         <f>IF(Result!A12="","",Result!A12)</f>
         <v/>
@@ -1905,7 +1893,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="str">
         <f>IF(Result!A13="","",Result!A13)</f>
         <v/>
@@ -1939,7 +1927,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="str">
         <f>IF(Result!A14="","",Result!A14)</f>
         <v/>
@@ -1973,7 +1961,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="str">
         <f>IF(Result!A15="","",Result!A15)</f>
         <v/>
@@ -2007,7 +1995,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="str">
         <f>IF(Result!A16="","",Result!A16)</f>
         <v/>
@@ -2041,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="str">
         <f>IF(Result!A17="","",Result!A17)</f>
         <v/>
@@ -2075,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G33" s="18" t="s">
         <v>50</v>
       </c>
@@ -2084,29 +2072,29 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
       <c r="I36" s="19"/>
     </row>
   </sheetData>

--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrpuser\Desktop\auto-timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04804000-9739-4039-806A-47B011DD45F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF0405-1CD4-4DCA-B41A-2306AEB6ADDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <t>Paste in cell A1</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,9 +1309,15 @@
     </row>
     <row r="16" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="35">
+        <v>3</v>
+      </c>
+      <c r="D16" s="36">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datainput.xlsx
+++ b/datainput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrpuser\Desktop\auto-timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF0405-1CD4-4DCA-B41A-2306AEB6ADDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79F34F-7313-4A11-92A1-7BCB7FAD44C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1980" windowWidth="28020" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <t>Paste in cell A1</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
